--- a/docs/simulation-graph.xlsx
+++ b/docs/simulation-graph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 criterion" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="5 criteria" sheetId="1" r:id="rId4"/>
     <sheet name="Varying Criteria" sheetId="3" r:id="rId5"/>
     <sheet name="Varying Criteria 2" sheetId="4" r:id="rId6"/>
-    <sheet name="Results" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>Mean</t>
   </si>
@@ -39,24 +38,6 @@
   </si>
   <si>
     <t>Criteria</t>
-  </si>
-  <si>
-    <t>Alternatives as Examples</t>
-  </si>
-  <si>
-    <t>2 criteria</t>
-  </si>
-  <si>
-    <t>1 criterion</t>
-  </si>
-  <si>
-    <t>3 criteria</t>
-  </si>
-  <si>
-    <t>4 criteria</t>
-  </si>
-  <si>
-    <t>5 criteria</t>
   </si>
 </sst>
 </file>
@@ -80,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -88,103 +69,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -192,33 +81,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,16 +635,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -900,12 +759,6 @@
                 <c:pt idx="5">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -932,12 +785,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,9 +879,6 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>5000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7500</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1532,12 +1376,6 @@
                 <c:pt idx="5">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1602,9 +1440,6 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>2</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -1662,9 +1497,6 @@
                       <c:pt idx="5">
                         <c:v>5000</c:v>
                       </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7500</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:xVal>
@@ -1680,24 +1512,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0.52300000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.54500000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.59799999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.60799999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.63400000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.66</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -7432,10 +7246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7511,22 +7325,6 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7500</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9000</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
@@ -7538,10 +7336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7562,9 +7360,6 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7573,9 +7368,6 @@
       <c r="B3">
         <v>0.377521230208959</v>
       </c>
-      <c r="C3">
-        <v>0.52300000000000002</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -7584,9 +7376,6 @@
       <c r="B4">
         <v>0.48655648120492001</v>
       </c>
-      <c r="C4">
-        <v>0.54500000000000004</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -7595,9 +7384,6 @@
       <c r="B5">
         <v>0.56030574564916302</v>
       </c>
-      <c r="C5">
-        <v>0.59799999999999998</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -7606,9 +7392,6 @@
       <c r="B6">
         <v>0.60799999999999998</v>
       </c>
-      <c r="C6">
-        <v>0.60799999999999998</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -7617,9 +7400,6 @@
       <c r="B7">
         <v>0.63400000000000001</v>
       </c>
-      <c r="C7">
-        <v>0.63400000000000001</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -7627,19 +7407,6 @@
       </c>
       <c r="B8">
         <v>0.66</v>
-      </c>
-      <c r="C8">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9000</v>
       </c>
     </row>
   </sheetData>
@@ -7905,165 +7672,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>10</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8">
-        <v>0.377521230208959</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>25</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>50</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>75</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>100</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
-        <v>0.48655648120492001</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>500</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8">
-        <v>0.56030574564916302</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8">
-        <v>0.55562566079326303</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>2500</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>5000</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7500</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>9000</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/docs/simulation-graph.xlsx
+++ b/docs/simulation-graph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 criterion" sheetId="2" r:id="rId1"/>
@@ -1386,22 +1386,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.377521230208959</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48655648120492001</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56030574564916302</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60799999999999998</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63400000000000001</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7248,8 +7248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7338,8 +7338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7366,7 +7366,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.377521230208959</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7374,7 +7374,7 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>0.48655648120492001</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7382,7 +7382,7 @@
         <v>500</v>
       </c>
       <c r="B5">
-        <v>0.56030574564916302</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7390,7 +7390,7 @@
         <v>1000</v>
       </c>
       <c r="B6">
-        <v>0.60799999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7398,7 +7398,7 @@
         <v>2500</v>
       </c>
       <c r="B7">
-        <v>0.63400000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7406,7 +7406,7 @@
         <v>5000</v>
       </c>
       <c r="B8">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>

--- a/docs/simulation-graph.xlsx
+++ b/docs/simulation-graph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 criterion" sheetId="2" r:id="rId1"/>
@@ -7248,8 +7248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7338,7 +7338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
